--- a/Cvetomira Nedkova/Lesson 8/PSB001_FASHION STORE.xlsx
+++ b/Cvetomira Nedkova/Lesson 8/PSB001_FASHION STORE.xlsx
@@ -74,9 +74,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>New/To do</t>
-  </si>
-  <si>
     <t>Incorrectly displayed quantities</t>
   </si>
   <si>
@@ -113,7 +110,10 @@
     <t>1. Load http://automationpractice.com/index.php</t>
   </si>
   <si>
-    <t>A red message should alert that requested qtys is not available in stock</t>
+    <t>A red message should alert that requested qtys are not available in stock</t>
+  </si>
+  <si>
+    <t>Opened</t>
   </si>
 </sst>
 </file>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -716,25 +716,25 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Cvetomira Nedkova/Lesson 8/PSB001_FASHION STORE.xlsx
+++ b/Cvetomira Nedkova/Lesson 8/PSB001_FASHION STORE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Priority</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Audit Log</t>
   </si>
   <si>
-    <t>PSB001</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>The user can successfully place an order and send a payment for qtys that are not actually available in stock</t>
   </si>
   <si>
-    <t xml:space="preserve">Pick up an item, color, qty. Check the available qtys and order higher amount than the anounced </t>
-  </si>
-  <si>
     <t>Expected results:</t>
   </si>
   <si>
@@ -113,7 +107,16 @@
     <t>A red message should alert that requested qtys are not available in stock</t>
   </si>
   <si>
-    <t>Opened</t>
+    <t xml:space="preserve">2. Pick up an item and color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Check the available qtys and order higher amount than the anounced </t>
+  </si>
+  <si>
+    <t>4. Press "Add to cart" button</t>
+  </si>
+  <si>
+    <t>PSB001_fashion store</t>
   </si>
 </sst>
 </file>
@@ -291,44 +294,6 @@
         <a:xfrm>
           <a:off x="4752975" y="28575"/>
           <a:ext cx="2247900" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9585960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4305300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="1516380"/>
-          <a:ext cx="9555480" cy="4625340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -684,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,120 +665,126 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="340.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
+      <c r="A16" s="10"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5">
-        <v>43377</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>43377</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A9:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>